--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3307" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3602" uniqueCount="657">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TDDUI CarePlan Projet Personalisé</t>
+    <t>TDDUI CarePlan Projet Personalise</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T09:00:00+00:00</t>
+    <t>2025-11-26T10:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de la ressource TDDUICarePlan permettant de représenter le projet personnalisé de l'usager.</t>
+    <t>Profil de la ressource CarePlan représentant le projet personnalisé d'un usager.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -330,13 +330,193 @@
 </t>
   </si>
   <si>
-    <t>CarePlan.implicitRules</t>
+    <t>CarePlan.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CarePlan.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CarePlan.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>CarePlan.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>statutProjetPersonnalise.dateStatut</t>
+  </si>
+  <si>
+    <t>CarePlan.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>CarePlan.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>CarePlan.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>CarePlan.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>CarePlan.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -432,28 +612,13 @@
     <t>CarePlan.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>CarePlan.extension:entrantProjetPerso</t>
@@ -482,10 +647,6 @@
     <t>CarePlan.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -493,9 +654,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -521,7 +679,7 @@
     <t>Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
-    <t>identifiantProjetPersonnalise</t>
+    <t>idProjetPersonnalise</t>
   </si>
   <si>
     <t>Request.identifier</t>
@@ -539,35 +697,7 @@
     <t>CarePlan.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>CarePlan.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>CarePlan.identifier.use</t>
@@ -619,9 +749,6 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
@@ -845,7 +972,7 @@
     <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
   </si>
   <si>
-    <t>statutProjetPersonnalise</t>
+    <t>statutProjetPersonnalise.statut</t>
   </si>
   <si>
     <t>Request.status {uses different ValueSet}</t>
@@ -1229,35 +1356,35 @@
     <t>Request.supportingInfo</t>
   </si>
   <si>
-    <t>CarePlan.supportingInfo:usager</t>
-  </si>
-  <si>
-    <t>usager</t>
+    <t>CarePlan.supportingInfo:accordUsager</t>
+  </si>
+  <si>
+    <t>accordUsager</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-consent-accord)
 </t>
   </si>
   <si>
-    <t>Référence à l'accord de l'usager.</t>
+    <t>Référence à l'accord de l'usager et/ou de son entourage.</t>
   </si>
   <si>
     <t>accordUsagerProjetPersonnalise</t>
   </si>
   <si>
-    <t>CarePlan.supportingInfo:usager.id</t>
+    <t>CarePlan.supportingInfo:accordUsager.id</t>
   </si>
   <si>
     <t>CarePlan.supportingInfo.id</t>
   </si>
   <si>
-    <t>CarePlan.supportingInfo:usager.extension</t>
+    <t>CarePlan.supportingInfo:accordUsager.extension</t>
   </si>
   <si>
     <t>CarePlan.supportingInfo.extension</t>
   </si>
   <si>
-    <t>CarePlan.supportingInfo:usager.reference</t>
+    <t>CarePlan.supportingInfo:accordUsager.reference</t>
   </si>
   <si>
     <t>CarePlan.supportingInfo.reference</t>
@@ -1279,7 +1406,7 @@
 </t>
   </si>
   <si>
-    <t>CarePlan.supportingInfo:usager.type</t>
+    <t>CarePlan.supportingInfo:accordUsager.type</t>
   </si>
   <si>
     <t>CarePlan.supportingInfo.type</t>
@@ -1304,7 +1431,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>CarePlan.supportingInfo:usager.identifier</t>
+    <t>CarePlan.supportingInfo:accordUsager.identifier</t>
   </si>
   <si>
     <t>CarePlan.supportingInfo.identifier</t>
@@ -1328,7 +1455,7 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>CarePlan.supportingInfo:usager.display</t>
+    <t>CarePlan.supportingInfo:accordUsager.display</t>
   </si>
   <si>
     <t>CarePlan.supportingInfo.display</t>
@@ -1349,10 +1476,10 @@
     <t>Reference.display</t>
   </si>
   <si>
-    <t>CarePlan.supportingInfo:structure</t>
-  </si>
-  <si>
-    <t>structure</t>
+    <t>CarePlan.supportingInfo:accordStructure</t>
+  </si>
+  <si>
+    <t>accordStructure</t>
   </si>
   <si>
     <t>Référence à l'accord de la structure.</t>
@@ -1361,22 +1488,22 @@
     <t>accordStructureProjetPersonnalise</t>
   </si>
   <si>
-    <t>CarePlan.supportingInfo:structure.id</t>
-  </si>
-  <si>
-    <t>CarePlan.supportingInfo:structure.extension</t>
-  </si>
-  <si>
-    <t>CarePlan.supportingInfo:structure.reference</t>
-  </si>
-  <si>
-    <t>CarePlan.supportingInfo:structure.type</t>
-  </si>
-  <si>
-    <t>CarePlan.supportingInfo:structure.identifier</t>
-  </si>
-  <si>
-    <t>CarePlan.supportingInfo:structure.display</t>
+    <t>CarePlan.supportingInfo:accordStructure.id</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordStructure.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordStructure.reference</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordStructure.type</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordStructure.identifier</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordStructure.display</t>
   </si>
   <si>
     <t>Consentement structure</t>
@@ -1467,9 +1594,6 @@
   </si>
   <si>
     <t>Note that this should not duplicate the activity status (e.g. completed or in progress).</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Identifies the results of the activity.</t>
@@ -2235,7 +2359,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO88"/>
+  <dimension ref="A1:AO96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2244,7 +2368,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.58203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.21484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.58203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="15.61328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2780,10 +2904,10 @@
         <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>104</v>
@@ -2794,9 +2918,7 @@
       <c r="M5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>107</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>81</v>
@@ -2845,7 +2967,7 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
@@ -2857,7 +2979,7 @@
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>81</v>
@@ -2866,7 +2988,7 @@
         <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>81</v>
@@ -2884,14 +3006,14 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>81</v>
@@ -2903,16 +3025,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2938,43 +3060,43 @@
         <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AD6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2983,7 +3105,7 @@
         <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>81</v>
@@ -2994,14 +3116,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3017,10 +3139,10 @@
         <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>121</v>
@@ -3100,7 +3222,7 @@
         <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>81</v>
@@ -3111,21 +3233,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>81</v>
@@ -3134,19 +3256,19 @@
         <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3196,28 +3318,28 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>81</v>
@@ -3228,10 +3350,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3242,7 +3364,7 @@
         <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>81</v>
@@ -3251,18 +3373,20 @@
         <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>81</v>
@@ -3299,29 +3423,31 @@
         <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -3341,14 +3467,12 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
         <v>81</v>
       </c>
@@ -3366,18 +3490,20 @@
         <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>81</v>
@@ -3426,7 +3552,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3435,13 +3561,13 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>81</v>
@@ -3458,14 +3584,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3478,26 +3604,24 @@
         <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="J11" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K11" t="s" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>81</v>
       </c>
@@ -3521,13 +3645,13 @@
         <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>81</v>
@@ -3545,7 +3669,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3557,7 +3681,7 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>81</v>
@@ -3566,7 +3690,7 @@
         <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>81</v>
@@ -3577,10 +3701,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3588,10 +3712,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>81</v>
@@ -3603,20 +3727,18 @@
         <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>81</v>
       </c>
@@ -3640,13 +3762,13 @@
         <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>81</v>
@@ -3664,7 +3786,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3679,27 +3801,27 @@
         <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3716,21 +3838,23 @@
         <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>81</v>
@@ -3779,7 +3903,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3791,7 +3915,7 @@
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>81</v>
@@ -3800,7 +3924,7 @@
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3811,21 +3935,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
@@ -3837,16 +3961,16 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3872,43 +3996,43 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>81</v>
@@ -3917,7 +4041,7 @@
         <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
@@ -3928,14 +4052,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3948,26 +4072,24 @@
         <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3991,13 +4113,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -4015,7 +4137,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -4036,32 +4158,32 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -4070,23 +4192,21 @@
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>81</v>
       </c>
@@ -4110,13 +4230,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -4134,19 +4254,19 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>81</v>
@@ -4155,21 +4275,21 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4177,10 +4297,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>81</v>
@@ -4189,23 +4309,19 @@
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>81</v>
       </c>
@@ -4214,10 +4330,10 @@
         <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -4241,31 +4357,29 @@
         <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
@@ -4274,32 +4388,34 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>208</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
@@ -4308,20 +4424,18 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -4334,7 +4448,7 @@
         <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>81</v>
@@ -4370,74 +4484,78 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4485,19 +4603,19 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>81</v>
@@ -4506,21 +4624,21 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>223</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4528,7 +4646,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>90</v>
@@ -4543,18 +4661,20 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4602,13 +4722,13 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
@@ -4617,27 +4737,27 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4648,7 +4768,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4657,16 +4777,16 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>235</v>
+        <v>106</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4717,28 +4837,28 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>232</v>
+        <v>107</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4749,14 +4869,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4772,19 +4892,19 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>241</v>
+        <v>114</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4822,19 +4942,19 @@
         <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>118</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4846,16 +4966,16 @@
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>242</v>
+        <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4866,43 +4986,45 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -4927,13 +5049,13 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -4951,13 +5073,13 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
@@ -4969,35 +5091,35 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -5009,19 +5131,19 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -5046,13 +5168,13 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -5070,13 +5192,13 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
@@ -5088,24 +5210,24 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>81</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5113,10 +5235,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -5128,18 +5250,20 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -5148,10 +5272,10 @@
         <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>81</v>
@@ -5187,13 +5311,13 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
@@ -5208,21 +5332,21 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>81</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5239,26 +5363,24 @@
         <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
       </c>
@@ -5270,7 +5392,7 @@
         <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>81</v>
+        <v>254</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>81</v>
@@ -5282,13 +5404,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -5306,10 +5428,10 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>90</v>
@@ -5321,27 +5443,27 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5349,7 +5471,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>90</v>
@@ -5358,26 +5480,22 @@
         <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>110</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5401,13 +5519,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -5425,10 +5543,10 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>90</v>
@@ -5443,24 +5561,24 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>81</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5483,20 +5601,18 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5520,11 +5636,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -5542,13 +5660,13 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
@@ -5557,27 +5675,27 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5585,10 +5703,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -5600,13 +5718,13 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5657,13 +5775,13 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
@@ -5672,13 +5790,13 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5689,10 +5807,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5703,7 +5821,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5715,18 +5833,18 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5774,13 +5892,13 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
@@ -5789,16 +5907,16 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
@@ -5806,21 +5924,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5832,16 +5950,18 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5889,13 +6009,13 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
@@ -5904,38 +6024,38 @@
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>307</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5947,18 +6067,20 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
       </c>
@@ -6006,13 +6128,13 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
@@ -6024,35 +6146,35 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -6064,20 +6186,18 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -6125,13 +6245,13 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
@@ -6143,24 +6263,24 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6168,7 +6288,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>90</v>
@@ -6177,22 +6297,26 @@
         <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>169</v>
+        <v>303</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6216,13 +6340,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -6240,10 +6364,10 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>171</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>90</v>
@@ -6252,64 +6376,66 @@
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>309</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>175</v>
+        <v>315</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6333,52 +6459,52 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>177</v>
+        <v>313</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6389,10 +6515,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6415,18 +6541,20 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6450,13 +6578,11 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
@@ -6474,42 +6600,42 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>338</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6517,7 +6643,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
@@ -6532,24 +6658,20 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="M37" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q37" t="s" s="2">
-        <v>343</v>
-      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6593,7 +6715,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6602,37 +6724,37 @@
         <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6651,16 +6773,18 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6708,7 +6832,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6723,16 +6847,16 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6740,18 +6864,18 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>90</v>
@@ -6766,17 +6890,15 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6825,10 +6947,10 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>90</v>
@@ -6840,27 +6962,27 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>81</v>
+        <v>346</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6871,7 +6993,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>81</v>
@@ -6880,19 +7002,19 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6942,13 +7064,13 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
@@ -6960,35 +7082,35 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>354</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>81</v>
+        <v>355</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>81</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>81</v>
+        <v>359</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6997,20 +7119,22 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -7059,13 +7183,13 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
@@ -7077,24 +7201,24 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>81</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7105,7 +7229,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -7114,23 +7238,19 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>374</v>
+        <v>104</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>375</v>
+        <v>105</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
       </c>
@@ -7178,50 +7298,50 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>373</v>
+        <v>107</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>379</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>380</v>
+        <v>108</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>382</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>80</v>
@@ -7236,20 +7356,18 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>384</v>
+        <v>111</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>385</v>
+        <v>112</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>386</v>
+        <v>113</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
       </c>
@@ -7285,17 +7403,19 @@
         <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>383</v>
+        <v>118</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7307,16 +7427,16 @@
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7327,14 +7447,12 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7352,23 +7470,21 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7416,42 +7532,42 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7471,23 +7587,27 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>168</v>
+        <v>371</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>169</v>
+        <v>381</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="R45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7531,7 +7651,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>171</v>
+        <v>385</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7540,44 +7660,44 @@
         <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>386</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>172</v>
+        <v>387</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -7586,20 +7706,18 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>135</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>174</v>
+        <v>391</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7636,43 +7754,43 @@
         <v>81</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>177</v>
+        <v>389</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>81</v>
+        <v>393</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>172</v>
+        <v>394</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7680,10 +7798,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7706,16 +7824,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>168</v>
+        <v>397</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7765,7 +7883,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7774,7 +7892,7 @@
         <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>406</v>
+        <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>102</v>
@@ -7783,13 +7901,13 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7797,10 +7915,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7811,7 +7929,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7820,19 +7938,19 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>104</v>
+        <v>397</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7858,13 +7976,13 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -7882,13 +8000,13 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
@@ -7903,7 +8021,7 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7914,10 +8032,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7928,7 +8046,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
@@ -7937,21 +8055,21 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>157</v>
+        <v>408</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7999,13 +8117,13 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>81</v>
@@ -8017,13 +8135,13 @@
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>421</v>
+        <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -8031,10 +8149,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8042,10 +8160,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -8057,18 +8175,20 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>168</v>
+        <v>415</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
@@ -8077,7 +8197,7 @@
         <v>81</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>81</v>
@@ -8116,13 +8236,13 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
@@ -8134,28 +8254,26 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>133</v>
+        <v>421</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8176,19 +8294,19 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8225,19 +8343,17 @@
         <v>81</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8252,10 +8368,10 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -8269,12 +8385,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="C52" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="B52" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>81</v>
       </c>
@@ -8283,7 +8401,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
@@ -8295,16 +8413,20 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>168</v>
+        <v>434</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>169</v>
+        <v>435</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
       </c>
@@ -8352,28 +8474,28 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>171</v>
+        <v>424</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>431</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8384,21 +8506,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8410,17 +8532,15 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8457,31 +8577,31 @@
         <v>81</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
@@ -8490,7 +8610,7 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8501,21 +8621,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
@@ -8524,19 +8644,19 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>402</v>
+        <v>112</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>403</v>
+        <v>113</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>404</v>
+        <v>114</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8574,31 +8694,31 @@
         <v>81</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>405</v>
+        <v>118</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>406</v>
+        <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
@@ -8607,7 +8727,7 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8618,10 +8738,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8647,13 +8767,13 @@
         <v>104</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8679,13 +8799,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8703,7 +8823,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8712,7 +8832,7 @@
         <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>102</v>
@@ -8724,7 +8844,7 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8735,10 +8855,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8761,16 +8881,16 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8796,13 +8916,13 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>81</v>
+        <v>454</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>81</v>
@@ -8820,7 +8940,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8841,7 +8961,7 @@
         <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>421</v>
+        <v>190</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8852,10 +8972,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8863,7 +8983,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>90</v>
@@ -8878,16 +8998,16 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8898,7 +9018,7 @@
         <v>81</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>439</v>
+        <v>81</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>81</v>
@@ -8937,7 +9057,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8958,7 +9078,7 @@
         <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>133</v>
+        <v>462</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -8969,10 +9089,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8980,10 +9100,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -8992,23 +9112,21 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>441</v>
+        <v>104</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -9017,7 +9135,7 @@
         <v>81</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>81</v>
+        <v>468</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>81</v>
@@ -9056,13 +9174,13 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>81</v>
@@ -9077,29 +9195,31 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>446</v>
+        <v>190</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>447</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>80</v>
@@ -9114,17 +9234,19 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O59" t="s" s="2">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -9173,7 +9295,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9185,16 +9307,16 @@
         <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>453</v>
+        <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>81</v>
+        <v>473</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>455</v>
+        <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9205,10 +9327,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9231,13 +9353,13 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9288,7 +9410,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9309,7 +9431,7 @@
         <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9320,14 +9442,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9346,16 +9468,16 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9393,19 +9515,19 @@
         <v>81</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9417,7 +9539,7 @@
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
@@ -9426,7 +9548,7 @@
         <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9437,46 +9559,44 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>459</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9524,19 +9644,19 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
@@ -9545,7 +9665,7 @@
         <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9556,10 +9676,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9570,7 +9690,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9579,19 +9699,19 @@
         <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9617,13 +9737,13 @@
         <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>467</v>
+        <v>149</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
@@ -9641,13 +9761,13 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
@@ -9662,7 +9782,7 @@
         <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9673,10 +9793,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9687,7 +9807,7 @@
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -9696,23 +9816,21 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>384</v>
+        <v>208</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9760,13 +9878,13 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>81</v>
@@ -9778,10 +9896,10 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9792,10 +9910,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9803,10 +9921,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>81</v>
@@ -9815,23 +9933,21 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>478</v>
+        <v>104</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>81</v>
       </c>
@@ -9840,7 +9956,7 @@
         <v>81</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>81</v>
+        <v>480</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>81</v>
@@ -9879,13 +9995,13 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>81</v>
@@ -9900,21 +10016,21 @@
         <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>484</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9925,7 +10041,7 @@
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>81</v>
@@ -9937,19 +10053,19 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="O66" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>81</v>
@@ -9998,16 +10114,16 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>491</v>
+        <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>102</v>
@@ -10016,24 +10132,24 @@
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>81</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10044,7 +10160,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>81</v>
@@ -10056,17 +10172,17 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>81</v>
@@ -10115,28 +10231,28 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>491</v>
+        <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>102</v>
+        <v>494</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>81</v>
+        <v>495</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -10147,10 +10263,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10173,13 +10289,13 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10230,7 +10346,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10251,7 +10367,7 @@
         <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -10262,14 +10378,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10288,16 +10404,16 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10347,7 +10463,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10359,7 +10475,7 @@
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
@@ -10368,7 +10484,7 @@
         <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10379,14 +10495,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10405,19 +10521,19 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>81</v>
@@ -10466,7 +10582,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10478,7 +10594,7 @@
         <v>81</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>81</v>
@@ -10487,7 +10603,7 @@
         <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -10498,10 +10614,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10512,7 +10628,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>81</v>
@@ -10524,18 +10640,18 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10559,13 +10675,13 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
@@ -10583,13 +10699,13 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>81</v>
@@ -10604,7 +10720,7 @@
         <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>507</v>
+        <v>81</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10615,10 +10731,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10641,17 +10757,19 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>509</v>
+        <v>425</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>234</v>
+        <v>511</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="O72" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -10700,7 +10818,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10718,10 +10836,10 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>236</v>
+        <v>515</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>237</v>
+        <v>516</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10732,10 +10850,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10758,19 +10876,19 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>104</v>
+        <v>518</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>239</v>
+        <v>519</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>241</v>
+        <v>521</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>81</v>
@@ -10819,7 +10937,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10837,24 +10955,24 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>242</v>
+        <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>237</v>
+        <v>523</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>81</v>
+        <v>524</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10877,19 +10995,19 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>189</v>
+        <v>526</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
@@ -10914,13 +11032,13 @@
         <v>81</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>467</v>
+        <v>81</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>519</v>
+        <v>81</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>520</v>
+        <v>81</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>81</v>
@@ -10938,7 +11056,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10947,7 +11065,7 @@
         <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>102</v>
@@ -10956,24 +11074,24 @@
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>523</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10984,7 +11102,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
@@ -10996,18 +11114,18 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>189</v>
+        <v>490</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
       </c>
@@ -11031,13 +11149,13 @@
         <v>81</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>467</v>
+        <v>81</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>528</v>
+        <v>81</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>529</v>
+        <v>81</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>81</v>
@@ -11055,16 +11173,16 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>102</v>
@@ -11073,10 +11191,10 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>530</v>
+        <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>81</v>
+        <v>537</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>81</v>
@@ -11087,10 +11205,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11101,7 +11219,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>81</v>
@@ -11113,17 +11231,15 @@
         <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>532</v>
+        <v>104</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>533</v>
+        <v>105</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>81</v>
@@ -11172,28 +11288,28 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>531</v>
+        <v>107</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>379</v>
+        <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -11204,14 +11320,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11230,18 +11346,18 @@
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>441</v>
+        <v>111</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>537</v>
+        <v>112</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>81</v>
       </c>
@@ -11289,7 +11405,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>536</v>
+        <v>118</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11301,7 +11417,7 @@
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>81</v>
@@ -11310,7 +11426,7 @@
         <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>446</v>
+        <v>108</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
@@ -11328,14 +11444,14 @@
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>81</v>
@@ -11344,22 +11460,22 @@
         <v>91</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>541</v>
+        <v>501</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>542</v>
+        <v>502</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>543</v>
+        <v>114</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>544</v>
+        <v>205</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>81</v>
@@ -11384,13 +11500,13 @@
         <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>545</v>
+        <v>81</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>546</v>
+        <v>81</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>81</v>
@@ -11408,42 +11524,42 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>540</v>
+        <v>503</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>547</v>
+        <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>548</v>
+        <v>190</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>549</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11466,18 +11582,18 @@
         <v>81</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>81</v>
       </c>
@@ -11501,13 +11617,13 @@
         <v>81</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>81</v>
+        <v>545</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>81</v>
+        <v>546</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>81</v>
@@ -11525,7 +11641,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11543,10 +11659,10 @@
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>554</v>
+        <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>81</v>
+        <v>547</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
@@ -11557,10 +11673,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11571,38 +11687,34 @@
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>557</v>
+        <v>275</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q80" t="s" s="2">
-        <v>561</v>
-      </c>
+      <c r="Q80" s="2"/>
       <c r="R80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11646,13 +11758,13 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>81</v>
@@ -11664,10 +11776,10 @@
         <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>562</v>
+        <v>277</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>563</v>
+        <v>278</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
@@ -11678,10 +11790,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11692,7 +11804,7 @@
         <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>81</v>
@@ -11704,17 +11816,19 @@
         <v>81</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>565</v>
+        <v>133</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>566</v>
+        <v>280</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O81" t="s" s="2">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>81</v>
@@ -11763,13 +11877,13 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>81</v>
@@ -11781,24 +11895,24 @@
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>569</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11821,19 +11935,19 @@
         <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>571</v>
+        <v>231</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>81</v>
@@ -11858,13 +11972,13 @@
         <v>81</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>81</v>
+        <v>559</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>81</v>
+        <v>560</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>81</v>
@@ -11882,7 +11996,7 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11900,24 +12014,24 @@
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>81</v>
+        <v>561</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>577</v>
+        <v>563</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11940,20 +12054,18 @@
         <v>81</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>579</v>
+        <v>231</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>81</v>
       </c>
@@ -11977,13 +12089,13 @@
         <v>81</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>81</v>
+        <v>568</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>81</v>
+        <v>569</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>81</v>
@@ -12001,7 +12113,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12019,24 +12131,24 @@
         <v>81</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>584</v>
+        <v>81</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>585</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12047,7 +12159,7 @@
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>81</v>
@@ -12059,15 +12171,17 @@
         <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>574</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>575</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>81</v>
@@ -12092,13 +12206,13 @@
         <v>81</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>467</v>
+        <v>81</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>590</v>
+        <v>81</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>591</v>
+        <v>81</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>81</v>
@@ -12116,13 +12230,13 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>81</v>
@@ -12134,35 +12248,35 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>592</v>
+        <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>593</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>595</v>
+        <v>81</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>81</v>
@@ -12174,17 +12288,17 @@
         <v>81</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>596</v>
+        <v>482</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>81</v>
@@ -12233,13 +12347,13 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>81</v>
@@ -12254,21 +12368,21 @@
         <v>81</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>600</v>
+        <v>487</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>601</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12276,7 +12390,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>90</v>
@@ -12285,22 +12399,26 @@
         <v>81</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>596</v>
+        <v>167</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>81</v>
       </c>
@@ -12324,13 +12442,13 @@
         <v>81</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>81</v>
+        <v>585</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>81</v>
+        <v>586</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>81</v>
@@ -12348,10 +12466,10 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>90</v>
@@ -12366,24 +12484,24 @@
         <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>81</v>
+        <v>587</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>606</v>
+        <v>589</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12406,15 +12524,17 @@
         <v>81</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>592</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>593</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>81</v>
@@ -12463,7 +12583,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12481,24 +12601,24 @@
         <v>81</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>81</v>
+        <v>594</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>610</v>
+        <v>81</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>484</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12515,28 +12635,32 @@
         <v>81</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>478</v>
+        <v>596</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>599</v>
+      </c>
       <c r="O88" t="s" s="2">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>601</v>
+      </c>
       <c r="R88" t="s" s="2">
         <v>81</v>
       </c>
@@ -12580,13 +12704,13 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>81</v>
@@ -12595,19 +12719,953 @@
         <v>102</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="O90" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="AL88" t="s" s="2">
+      <c r="P90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="AM88" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>484</v>
+      <c r="AN90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-26T10:17:34+00:00</t>
+    <t>2025-11-27T09:05:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -641,7 +641,7 @@
 </t>
   </si>
   <si>
-    <t>entrantProjetPersonnalisee</t>
+    <t>entrantProjetPersonnalise</t>
   </si>
   <si>
     <t>CarePlan.modifierExtension</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T09:05:35+00:00</t>
+    <t>2025-11-27T16:23:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3602" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="670">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T16:23:25+00:00</t>
+    <t>2025-11-27T17:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -985,6 +985,46 @@
   </si>
   <si>
     <t>PTH-5</t>
+  </si>
+  <si>
+    <t>CarePlan.status.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>CarePlan.status.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.status.extension:auteurStatut</t>
+  </si>
+  <si>
+    <t>auteurStatut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-status-author}
+</t>
+  </si>
+  <si>
+    <t>TDDUI Profession</t>
+  </si>
+  <si>
+    <t>Extension permettant de représenter la profession du professionnel.</t>
+  </si>
+  <si>
+    <t>statutProjetPersonnalise.auteur</t>
+  </si>
+  <si>
+    <t>CarePlan.status.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
   </si>
   <si>
     <t>CarePlan.intent</t>
@@ -2359,7 +2399,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO96"/>
+  <dimension ref="A1:AO100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6407,7 +6447,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>90</v>
@@ -6416,13 +6456,13 @@
         <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>314</v>
@@ -6430,12 +6470,8 @@
       <c r="M35" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6459,13 +6495,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -6483,10 +6519,10 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>107</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>90</v>
@@ -6495,13 +6531,13 @@
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
@@ -6515,10 +6551,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6529,7 +6565,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -6538,23 +6574,19 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>192</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6578,29 +6610,29 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>118</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6612,10 +6644,10 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>81</v>
@@ -6624,7 +6656,7 @@
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6632,18 +6664,20 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
@@ -6655,16 +6689,16 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>104</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6715,22 +6749,22 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>329</v>
+        <v>118</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
@@ -6747,10 +6781,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6770,21 +6804,19 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>336</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6832,7 +6864,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6844,10 +6876,10 @@
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>81</v>
@@ -6856,7 +6888,7 @@
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6864,14 +6896,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6884,22 +6916,26 @@
         <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>341</v>
+        <v>167</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6923,13 +6959,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6947,7 +6983,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>90</v>
@@ -6962,27 +6998,27 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7005,18 +7041,20 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>350</v>
+        <v>231</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -7040,13 +7078,11 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>339</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -7064,13 +7100,13 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
@@ -7079,35 +7115,35 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>355</v>
+        <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>90</v>
@@ -7122,20 +7158,16 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>259</v>
+        <v>104</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -7183,7 +7215,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7198,27 +7230,27 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>364</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>367</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7238,19 +7270,21 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>104</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>105</v>
+        <v>347</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>106</v>
+        <v>348</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
       </c>
@@ -7298,7 +7332,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7310,19 +7344,19 @@
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -7330,21 +7364,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>110</v>
+        <v>353</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -7353,20 +7387,18 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>111</v>
+        <v>354</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>112</v>
+        <v>355</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7403,54 +7435,54 @@
         <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>118</v>
+        <v>352</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>357</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>81</v>
+        <v>358</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>108</v>
+        <v>359</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7473,16 +7505,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7532,7 +7564,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7541,37 +7573,37 @@
         <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>376</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>367</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7590,68 +7622,68 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q45" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7660,37 +7692,37 @@
         <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>376</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>386</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7706,16 +7738,16 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>371</v>
+        <v>104</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>391</v>
+        <v>105</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>392</v>
+        <v>106</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7766,7 +7798,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>389</v>
+        <v>107</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7778,19 +7810,19 @@
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>393</v>
+        <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>394</v>
+        <v>108</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>395</v>
+        <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7798,21 +7830,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7821,19 +7853,19 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>397</v>
+        <v>111</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>398</v>
+        <v>112</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>399</v>
+        <v>113</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>400</v>
+        <v>114</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7871,43 +7903,43 @@
         <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>396</v>
+        <v>118</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>402</v>
+        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7915,10 +7947,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7929,7 +7961,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7938,19 +7970,19 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8000,42 +8032,42 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>81</v>
+        <v>389</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>81</v>
+        <v>391</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>81</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8046,7 +8078,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
@@ -8055,25 +8087,27 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="R49" t="s" s="2">
         <v>81</v>
       </c>
@@ -8117,53 +8151,53 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>81</v>
+        <v>389</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>399</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>81</v>
+        <v>403</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -8175,20 +8209,16 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
@@ -8236,13 +8266,13 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
@@ -8254,24 +8284,24 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8279,11 +8309,11 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8291,23 +8321,21 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8343,23 +8371,25 @@
         <v>81</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AC51" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
@@ -8371,13 +8401,13 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
@@ -8385,14 +8415,12 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>81</v>
       </c>
@@ -8413,20 +8441,18 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
       </c>
@@ -8474,7 +8500,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8489,10 +8515,10 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>431</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
@@ -8506,10 +8532,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8520,7 +8546,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8532,16 +8558,18 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>104</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>105</v>
+        <v>422</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>106</v>
+        <v>423</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8589,31 +8617,31 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>107</v>
+        <v>420</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -8621,14 +8649,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8644,21 +8672,23 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>111</v>
+        <v>428</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>112</v>
+        <v>429</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>113</v>
+        <v>430</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8694,19 +8724,19 @@
         <v>81</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>118</v>
+        <v>427</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8718,30 +8748,30 @@
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>108</v>
+        <v>434</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8749,10 +8779,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8761,21 +8791,23 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>104</v>
+        <v>438</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8811,28 +8843,26 @@
         <v>81</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>447</v>
+        <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>102</v>
@@ -8841,10 +8871,10 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8855,12 +8885,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8869,7 +8901,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8878,21 +8910,23 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>133</v>
+        <v>447</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8916,13 +8950,13 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>81</v>
@@ -8940,13 +8974,13 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
@@ -8955,13 +8989,13 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8972,10 +9006,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8995,20 +9029,18 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>458</v>
+        <v>105</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -9057,7 +9089,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>461</v>
+        <v>107</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9069,7 +9101,7 @@
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>81</v>
@@ -9078,7 +9110,7 @@
         <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>462</v>
+        <v>108</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -9089,21 +9121,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -9112,19 +9144,19 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>465</v>
+        <v>112</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>466</v>
+        <v>113</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>467</v>
+        <v>114</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9135,7 +9167,7 @@
         <v>81</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>81</v>
@@ -9162,31 +9194,31 @@
         <v>81</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>469</v>
+        <v>118</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
@@ -9195,7 +9227,7 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -9206,24 +9238,22 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9231,23 +9261,21 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>434</v>
+        <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9295,28 +9323,28 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>81</v>
+        <v>460</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>473</v>
+        <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>431</v>
+        <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9327,10 +9355,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9350,18 +9378,20 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>105</v>
+        <v>463</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9386,13 +9416,13 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>81</v>
+        <v>466</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -9410,7 +9440,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>107</v>
+        <v>468</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9422,7 +9452,7 @@
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>81</v>
@@ -9431,7 +9461,7 @@
         <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9442,21 +9472,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9465,19 +9495,19 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>112</v>
+        <v>471</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>113</v>
+        <v>472</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>114</v>
+        <v>473</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9515,31 +9545,31 @@
         <v>81</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>118</v>
+        <v>474</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
@@ -9548,7 +9578,7 @@
         <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>108</v>
+        <v>475</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9562,7 +9592,7 @@
         <v>476</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9570,7 +9600,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>90</v>
@@ -9588,13 +9618,13 @@
         <v>104</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>443</v>
+        <v>478</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9605,7 +9635,7 @@
         <v>81</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>81</v>
+        <v>481</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>81</v>
@@ -9644,7 +9674,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9653,7 +9683,7 @@
         <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>447</v>
+        <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>102</v>
@@ -9676,21 +9706,23 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9699,21 +9731,23 @@
         <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>133</v>
+        <v>447</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9737,13 +9771,13 @@
         <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
@@ -9761,13 +9795,13 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
@@ -9776,13 +9810,13 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>81</v>
+        <v>486</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9793,10 +9827,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9816,20 +9850,18 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>458</v>
+        <v>105</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -9878,7 +9910,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>461</v>
+        <v>107</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9890,7 +9922,7 @@
         <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
@@ -9899,7 +9931,7 @@
         <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>462</v>
+        <v>108</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9910,21 +9942,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>81</v>
@@ -9933,19 +9965,19 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>465</v>
+        <v>112</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>466</v>
+        <v>113</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>467</v>
+        <v>114</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9956,7 +9988,7 @@
         <v>81</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>480</v>
+        <v>81</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>81</v>
@@ -9983,31 +10015,31 @@
         <v>81</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>469</v>
+        <v>118</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>81</v>
@@ -10016,7 +10048,7 @@
         <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -10027,10 +10059,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10041,7 +10073,7 @@
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>81</v>
@@ -10050,23 +10082,21 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>482</v>
+        <v>104</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>81</v>
       </c>
@@ -10114,16 +10144,16 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>81</v>
+        <v>460</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>102</v>
@@ -10135,21 +10165,21 @@
         <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>487</v>
+        <v>190</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>488</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10160,7 +10190,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>81</v>
@@ -10169,21 +10199,21 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>490</v>
+        <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>81</v>
       </c>
@@ -10207,13 +10237,13 @@
         <v>81</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>81</v>
+        <v>466</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>81</v>
@@ -10231,28 +10261,28 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>494</v>
+        <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>495</v>
+        <v>81</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>496</v>
+        <v>190</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -10263,10 +10293,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10286,18 +10316,20 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>105</v>
+        <v>471</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
@@ -10346,7 +10378,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>107</v>
+        <v>474</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10358,7 +10390,7 @@
         <v>81</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>81</v>
@@ -10367,7 +10399,7 @@
         <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>108</v>
+        <v>475</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -10378,21 +10410,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>81</v>
@@ -10401,19 +10433,19 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>112</v>
+        <v>478</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>113</v>
+        <v>479</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>114</v>
+        <v>480</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10424,7 +10456,7 @@
         <v>81</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>81</v>
+        <v>493</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>81</v>
@@ -10463,19 +10495,19 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>118</v>
+        <v>482</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
@@ -10484,7 +10516,7 @@
         <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10495,14 +10527,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10515,25 +10547,25 @@
         <v>81</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>111</v>
+        <v>495</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>114</v>
+        <v>498</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>205</v>
+        <v>499</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>81</v>
@@ -10582,7 +10614,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10594,7 +10626,7 @@
         <v>81</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>81</v>
@@ -10603,21 +10635,21 @@
         <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>81</v>
+        <v>501</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10640,18 +10672,18 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>231</v>
+        <v>503</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="N71" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10675,13 +10707,13 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>508</v>
+        <v>81</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>509</v>
+        <v>81</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
@@ -10699,7 +10731,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10711,16 +10743,16 @@
         <v>81</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>102</v>
+        <v>507</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>81</v>
+        <v>508</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>81</v>
+        <v>509</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10745,7 +10777,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>81</v>
@@ -10757,20 +10789,16 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>425</v>
+        <v>104</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>511</v>
+        <v>105</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>81</v>
       </c>
@@ -10818,28 +10846,28 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>510</v>
+        <v>107</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>515</v>
+        <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>516</v>
+        <v>108</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10850,14 +10878,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10876,20 +10904,18 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>518</v>
+        <v>111</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>519</v>
+        <v>112</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>520</v>
+        <v>113</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>81</v>
       </c>
@@ -10937,7 +10963,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>517</v>
+        <v>118</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10949,7 +10975,7 @@
         <v>81</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
@@ -10958,56 +10984,56 @@
         <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>523</v>
+        <v>108</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>524</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>81</v>
+        <v>513</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>526</v>
+        <v>111</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>529</v>
+        <v>114</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>530</v>
+        <v>205</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
@@ -11056,28 +11082,28 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>531</v>
+        <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>532</v>
+        <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>496</v>
+        <v>190</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -11088,10 +11114,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11102,7 +11128,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
@@ -11114,18 +11140,18 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>490</v>
+        <v>231</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>536</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>81</v>
       </c>
@@ -11149,13 +11175,13 @@
         <v>81</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>81</v>
+        <v>521</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>81</v>
+        <v>522</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>81</v>
@@ -11173,16 +11199,16 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>531</v>
+        <v>81</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>102</v>
@@ -11194,7 +11220,7 @@
         <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>537</v>
+        <v>81</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>81</v>
@@ -11205,10 +11231,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11219,7 +11245,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>81</v>
@@ -11231,16 +11257,20 @@
         <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>104</v>
+        <v>438</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>105</v>
+        <v>524</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
       </c>
@@ -11288,28 +11318,28 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>107</v>
+        <v>523</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>81</v>
+        <v>528</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>108</v>
+        <v>529</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -11320,14 +11350,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11346,18 +11376,20 @@
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>111</v>
+        <v>531</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>112</v>
+        <v>532</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>113</v>
+        <v>533</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>81</v>
       </c>
@@ -11405,7 +11437,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>118</v>
+        <v>530</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11417,7 +11449,7 @@
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>81</v>
@@ -11426,56 +11458,56 @@
         <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>108</v>
+        <v>536</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>81</v>
+        <v>537</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>111</v>
+        <v>539</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>114</v>
+        <v>542</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>205</v>
+        <v>543</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>81</v>
@@ -11524,28 +11556,28 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>503</v>
+        <v>538</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>81</v>
+        <v>544</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>81</v>
+        <v>545</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>190</v>
+        <v>509</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
@@ -11556,10 +11588,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11582,17 +11614,17 @@
         <v>81</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>167</v>
+        <v>503</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>81</v>
@@ -11617,31 +11649,31 @@
         <v>81</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>545</v>
+        <v>81</v>
       </c>
       <c r="Z79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF79" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11650,7 +11682,7 @@
         <v>90</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>81</v>
+        <v>544</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>102</v>
@@ -11662,7 +11694,7 @@
         <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
@@ -11673,10 +11705,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11687,7 +11719,7 @@
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>81</v>
@@ -11699,18 +11731,16 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>549</v>
+        <v>104</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>275</v>
+        <v>105</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>550</v>
+        <v>106</v>
       </c>
       <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>551</v>
-      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11758,28 +11788,28 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>548</v>
+        <v>107</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>278</v>
+        <v>108</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
@@ -11797,7 +11827,7 @@
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11816,20 +11846,18 @@
         <v>81</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>280</v>
+        <v>112</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>553</v>
+        <v>113</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>81</v>
       </c>
@@ -11877,7 +11905,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>552</v>
+        <v>118</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11889,16 +11917,16 @@
         <v>81</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>278</v>
+        <v>108</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
@@ -11909,45 +11937,45 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>81</v>
+        <v>513</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>555</v>
+        <v>514</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>556</v>
+        <v>515</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>557</v>
+        <v>114</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>558</v>
+        <v>205</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>81</v>
@@ -11972,13 +12000,13 @@
         <v>81</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>559</v>
+        <v>81</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>560</v>
+        <v>81</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>81</v>
@@ -11996,42 +12024,42 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>554</v>
+        <v>516</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>561</v>
+        <v>81</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>562</v>
+        <v>190</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>563</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12042,7 +12070,7 @@
         <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>81</v>
@@ -12054,18 +12082,18 @@
         <v>81</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>81</v>
       </c>
@@ -12089,13 +12117,13 @@
         <v>81</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>81</v>
@@ -12113,13 +12141,13 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>81</v>
@@ -12131,10 +12159,10 @@
         <v>81</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>570</v>
+        <v>81</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>81</v>
+        <v>560</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>81</v>
@@ -12145,10 +12173,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12171,18 +12199,18 @@
         <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>573</v>
+        <v>275</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>81</v>
       </c>
@@ -12230,7 +12258,7 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12248,10 +12276,10 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>420</v>
+        <v>277</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>81</v>
@@ -12262,10 +12290,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12288,17 +12316,19 @@
         <v>81</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>482</v>
+        <v>133</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>577</v>
+        <v>280</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O85" t="s" s="2">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>81</v>
@@ -12347,7 +12377,7 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12365,10 +12395,10 @@
         <v>81</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>487</v>
+        <v>278</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>81</v>
@@ -12379,10 +12409,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12390,7 +12420,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>90</v>
@@ -12399,25 +12429,25 @@
         <v>81</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>81</v>
@@ -12442,13 +12472,13 @@
         <v>81</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>81</v>
@@ -12466,10 +12496,10 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>90</v>
@@ -12484,24 +12514,24 @@
         <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12512,7 +12542,7 @@
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>81</v>
@@ -12527,13 +12557,13 @@
         <v>231</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12559,13 +12589,13 @@
         <v>81</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>81</v>
+        <v>581</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>81</v>
+        <v>582</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>81</v>
@@ -12583,13 +12613,13 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>81</v>
@@ -12601,7 +12631,7 @@
         <v>81</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>81</v>
@@ -12615,10 +12645,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12629,38 +12659,34 @@
         <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>600</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q88" t="s" s="2">
-        <v>601</v>
-      </c>
+      <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
         <v>81</v>
       </c>
@@ -12704,13 +12730,13 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>81</v>
@@ -12722,10 +12748,10 @@
         <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>602</v>
+        <v>433</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>603</v>
+        <v>81</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>81</v>
@@ -12736,10 +12762,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12750,7 +12776,7 @@
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>81</v>
@@ -12762,17 +12788,17 @@
         <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>605</v>
+        <v>495</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>81</v>
@@ -12821,13 +12847,13 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>81</v>
@@ -12839,24 +12865,24 @@
         <v>81</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>364</v>
+        <v>81</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>365</v>
+        <v>500</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>609</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12864,7 +12890,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>90</v>
@@ -12873,25 +12899,25 @@
         <v>81</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>611</v>
+        <v>167</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>81</v>
@@ -12916,13 +12942,13 @@
         <v>81</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>81</v>
+        <v>598</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>81</v>
+        <v>599</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>81</v>
@@ -12940,10 +12966,10 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>90</v>
@@ -12958,24 +12984,24 @@
         <v>81</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>81</v>
+        <v>600</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>617</v>
+        <v>602</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12986,7 +13012,7 @@
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>81</v>
@@ -12998,20 +13024,18 @@
         <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>619</v>
+        <v>231</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>615</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>81</v>
       </c>
@@ -13059,13 +13083,13 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>81</v>
@@ -13077,24 +13101,24 @@
         <v>81</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>624</v>
+        <v>81</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>625</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13111,26 +13135,32 @@
         <v>81</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+        <v>611</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>613</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="R92" t="s" s="2">
         <v>81</v>
       </c>
@@ -13150,13 +13180,13 @@
         <v>81</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>630</v>
+        <v>81</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>631</v>
+        <v>81</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>81</v>
@@ -13174,7 +13204,7 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13192,28 +13222,28 @@
         <v>81</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>81</v>
+        <v>615</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>633</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>635</v>
+        <v>81</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13232,17 +13262,17 @@
         <v>81</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>81</v>
@@ -13291,7 +13321,7 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13309,24 +13339,24 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>640</v>
+        <v>378</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>641</v>
+        <v>622</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13349,16 +13379,20 @@
         <v>81</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>628</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>81</v>
       </c>
@@ -13406,7 +13440,7 @@
         <v>81</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13427,21 +13461,21 @@
         <v>81</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>646</v>
+        <v>630</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13452,7 +13486,7 @@
         <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>81</v>
@@ -13464,16 +13498,20 @@
         <v>81</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>104</v>
+        <v>632</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+        <v>634</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>628</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>81</v>
       </c>
@@ -13521,13 +13559,13 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>81</v>
@@ -13539,24 +13577,24 @@
         <v>81</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>81</v>
+        <v>636</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>524</v>
+        <v>638</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13579,18 +13617,16 @@
         <v>81</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>518</v>
+        <v>640</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>654</v>
-      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>81</v>
       </c>
@@ -13614,13 +13650,13 @@
         <v>81</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>81</v>
+        <v>643</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>81</v>
+        <v>644</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>81</v>
@@ -13638,13 +13674,13 @@
         <v>81</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>81</v>
@@ -13653,19 +13689,483 @@
         <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="AL96" t="s" s="2">
+      <c r="B98" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="AM96" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>524</v>
+      <c r="M98" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:29:29+00:00</t>
+    <t>2025-11-28T10:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T10:30:25+00:00</t>
+    <t>2025-12-01T08:11:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T08:11:14+00:00</t>
+    <t>2025-12-01T09:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T09:05:19+00:00</t>
+    <t>2025-12-02T17:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T17:18:03+00:00</t>
+    <t>2025-12-03T10:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:22:03+00:00</t>
+    <t>2025-12-05T09:54:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -956,7 +956,7 @@
     <t>CarePlan.status</t>
   </si>
   <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+    <t>Correspondance des statuts métier avec les codes FHIR : ENPREPARATION → draft, ENCOURS → active, ENPAUSE → on-hold, TERMINE → completed.</t>
   </si>
   <si>
     <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:54:12+00:00</t>
+    <t>2025-12-09T10:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -634,7 +634,7 @@
     <t>Pièce jointe</t>
   </si>
   <si>
-    <t>Pièces jointes liées à l’événement et à l'évaluation. L'extension référence le profil PDSm_SimplifiedPublish.</t>
+    <t>Ce profil permet de véhiculer des pièces jointes que ce soit pour l'évaluation, l'évènement ou le projet personnalisé. L'extension référence le profil PDSm_SimplifiedPublish.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1009,7 +1009,7 @@
 </t>
   </si>
   <si>
-    <t>TDDUI Profession</t>
+    <t>TDDUI Auteur statut</t>
   </si>
   <si>
     <t>Extension permettant de représenter la profession du professionnel.</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4363" uniqueCount="699">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T10:26:43+00:00</t>
+    <t>2025-12-10T10:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1389,42 +1389,36 @@
     <t>Identifies barriers and other considerations associated with the care plan.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:display}
+    <t xml:space="preserve">pattern:extension('https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-discriminator').value}
 </t>
   </si>
   <si>
     <t>Request.supportingInfo</t>
   </si>
   <si>
-    <t>CarePlan.supportingInfo:accordUsager</t>
-  </si>
-  <si>
-    <t>accordUsager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-consent-accord)
+    <t>CarePlan.supportingInfo.id</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo.extension:TDDUIDiscriminator</t>
+  </si>
+  <si>
+    <t>TDDUIDiscriminator</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-discriminator}
 </t>
   </si>
   <si>
-    <t>Référence à l'accord de l'usager et/ou de son entourage.</t>
-  </si>
-  <si>
-    <t>accordUsagerProjetPersonnalise</t>
-  </si>
-  <si>
-    <t>CarePlan.supportingInfo:accordUsager.id</t>
-  </si>
-  <si>
-    <t>CarePlan.supportingInfo.id</t>
-  </si>
-  <si>
-    <t>CarePlan.supportingInfo:accordUsager.extension</t>
-  </si>
-  <si>
-    <t>CarePlan.supportingInfo.extension</t>
-  </si>
-  <si>
-    <t>CarePlan.supportingInfo:accordUsager.reference</t>
+    <t>TDDUI Discriminator Extension</t>
+  </si>
+  <si>
+    <t>Extension pour discriminer les éléments CarePlan.supportingInfo et Goal.note.</t>
   </si>
   <si>
     <t>CarePlan.supportingInfo.reference</t>
@@ -1446,9 +1440,6 @@
 </t>
   </si>
   <si>
-    <t>CarePlan.supportingInfo:accordUsager.type</t>
-  </si>
-  <si>
     <t>CarePlan.supportingInfo.type</t>
   </si>
   <si>
@@ -1469,9 +1460,6 @@
   </si>
   <si>
     <t>Reference.type</t>
-  </si>
-  <si>
-    <t>CarePlan.supportingInfo:accordUsager.identifier</t>
   </si>
   <si>
     <t>CarePlan.supportingInfo.identifier</t>
@@ -1495,27 +1483,117 @@
     <t>.identifier</t>
   </si>
   <si>
+    <t>CarePlan.supportingInfo.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordUsager</t>
+  </si>
+  <si>
+    <t>accordUsager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-consent-accord)
+</t>
+  </si>
+  <si>
+    <t>Référence à l'accord de l'usager et/ou de son entourage.</t>
+  </si>
+  <si>
+    <t>accordUsagerProjetPersonnalise</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordUsager.id</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordUsager.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordUsager.extension:TDDUIDiscriminator</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordUsager.extension:TDDUIDiscriminator.id</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo.extension.id</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordUsager.extension:TDDUIDiscriminator.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo.extension.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordUsager.extension:TDDUIDiscriminator.url</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-discriminator</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordUsager.extension:TDDUIDiscriminator.value[x]</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-discriminator-cs"/&gt;
+    &lt;code value="accordUsager"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-care-plan-supportingInfo-vs</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordUsager.reference</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordUsager.type</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordUsager.identifier</t>
+  </si>
+  <si>
     <t>CarePlan.supportingInfo:accordUsager.display</t>
   </si>
   <si>
-    <t>CarePlan.supportingInfo.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Consentement usager</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>CarePlan.supportingInfo:accordStructure</t>
   </si>
   <si>
@@ -1534,6 +1612,29 @@
     <t>CarePlan.supportingInfo:accordStructure.extension</t>
   </si>
   <si>
+    <t>CarePlan.supportingInfo:accordStructure.extension:TDDUIDiscriminator</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordStructure.extension:TDDUIDiscriminator.id</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordStructure.extension:TDDUIDiscriminator.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordStructure.extension:TDDUIDiscriminator.url</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:accordStructure.extension:TDDUIDiscriminator.value[x]</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-discriminator-cs"/&gt;
+    &lt;code value="accordStructure"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>CarePlan.supportingInfo:accordStructure.reference</t>
   </si>
   <si>
@@ -1544,9 +1645,6 @@
   </si>
   <si>
     <t>CarePlan.supportingInfo:accordStructure.display</t>
-  </si>
-  <si>
-    <t>Consentement structure</t>
   </si>
   <si>
     <t>CarePlan.goal</t>
@@ -2399,7 +2497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO100"/>
+  <dimension ref="A1:AO117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2408,9 +2506,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.21484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.4921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.58203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.61328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2433,9 +2531,9 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="136.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.77734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.17578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="86.6484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
@@ -8888,11 +8986,9 @@
         <v>445</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8901,7 +8997,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8913,20 +9009,16 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>447</v>
+        <v>104</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>448</v>
+        <v>105</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8974,28 +9066,28 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>437</v>
+        <v>107</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>449</v>
+        <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -9006,10 +9098,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9017,10 +9109,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -9032,13 +9124,13 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9077,31 +9169,31 @@
         <v>81</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>81</v>
@@ -9110,7 +9202,7 @@
         <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -9121,21 +9213,23 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="D58" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -9147,17 +9241,15 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>111</v>
+        <v>450</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>112</v>
+        <v>451</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -9194,16 +9286,16 @@
         <v>81</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>118</v>
@@ -9227,7 +9319,7 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -9238,10 +9330,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9267,13 +9359,13 @@
         <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9323,7 +9415,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9332,7 +9424,7 @@
         <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>102</v>
@@ -9355,10 +9447,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9384,13 +9476,13 @@
         <v>133</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9419,10 +9511,10 @@
         <v>149</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -9440,7 +9532,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9472,10 +9564,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9501,13 +9593,13 @@
         <v>208</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9557,7 +9649,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9578,7 +9670,7 @@
         <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9589,10 +9681,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9600,7 +9692,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>90</v>
@@ -9618,13 +9710,13 @@
         <v>104</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9635,7 +9727,7 @@
         <v>81</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>481</v>
+        <v>81</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>81</v>
@@ -9674,7 +9766,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9706,20 +9798,20 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>437</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>80</v>
@@ -9734,10 +9826,10 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>440</v>
@@ -9810,7 +9902,7 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>444</v>
@@ -9827,10 +9919,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9942,18 +10034,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9971,14 +10063,12 @@
         <v>111</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -10048,7 +10138,7 @@
         <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -10059,18 +10149,20 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="D66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>90</v>
@@ -10082,20 +10174,18 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>104</v>
+        <v>450</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>81</v>
@@ -10144,19 +10234,19 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>459</v>
+        <v>118</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>460</v>
+        <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>81</v>
@@ -10165,7 +10255,7 @@
         <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -10176,10 +10266,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10199,20 +10289,18 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>463</v>
+        <v>105</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>81</v>
@@ -10237,13 +10325,13 @@
         <v>81</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>466</v>
+        <v>81</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>467</v>
+        <v>81</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>81</v>
@@ -10261,7 +10349,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>468</v>
+        <v>107</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10273,7 +10361,7 @@
         <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>81</v>
@@ -10282,7 +10370,7 @@
         <v>81</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -10293,10 +10381,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10307,7 +10395,7 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>81</v>
@@ -10316,20 +10404,18 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>471</v>
+        <v>192</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
@@ -10366,31 +10452,31 @@
         <v>81</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>474</v>
+        <v>118</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>81</v>
@@ -10399,7 +10485,7 @@
         <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -10410,10 +10496,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10433,19 +10519,19 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10453,10 +10539,10 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>81</v>
+        <v>494</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>493</v>
+        <v>81</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>81</v>
@@ -10495,10 +10581,10 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>90</v>
@@ -10507,7 +10593,7 @@
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
@@ -10527,10 +10613,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10541,7 +10627,7 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>81</v>
@@ -10553,20 +10639,16 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>495</v>
+        <v>231</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="O70" t="s" s="2">
         <v>499</v>
       </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10575,7 +10657,7 @@
         <v>81</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>81</v>
@@ -10590,13 +10672,11 @@
         <v>81</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>81</v>
@@ -10614,13 +10694,13 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>81</v>
@@ -10635,21 +10715,21 @@
         <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>501</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>502</v>
+        <v>453</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10660,7 +10740,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>81</v>
@@ -10669,21 +10749,21 @@
         <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>503</v>
+        <v>104</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>504</v>
+        <v>454</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10731,28 +10811,28 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>507</v>
+        <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>508</v>
+        <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>509</v>
+        <v>190</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10763,10 +10843,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10786,18 +10866,20 @@
         <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>105</v>
+        <v>460</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -10822,13 +10904,13 @@
         <v>81</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>81</v>
+        <v>463</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>81</v>
@@ -10846,7 +10928,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>107</v>
+        <v>465</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10858,7 +10940,7 @@
         <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>81</v>
@@ -10867,7 +10949,7 @@
         <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10878,21 +10960,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>511</v>
+        <v>466</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>81</v>
@@ -10901,19 +10983,19 @@
         <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>112</v>
+        <v>467</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>113</v>
+        <v>468</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>114</v>
+        <v>469</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10963,19 +11045,19 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>118</v>
+        <v>470</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
@@ -10984,7 +11066,7 @@
         <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>108</v>
+        <v>471</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -10995,46 +11077,44 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>513</v>
+        <v>81</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>514</v>
+        <v>473</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>515</v>
+        <v>474</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>81</v>
       </c>
@@ -11082,19 +11162,19 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>81</v>
@@ -11114,18 +11194,20 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>80</v>
@@ -11140,18 +11222,20 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>231</v>
+        <v>479</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>519</v>
+        <v>440</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
       </c>
@@ -11175,13 +11259,13 @@
         <v>81</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>521</v>
+        <v>81</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>522</v>
+        <v>81</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>81</v>
@@ -11199,7 +11283,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>517</v>
+        <v>437</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11214,10 +11298,10 @@
         <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>81</v>
+        <v>510</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
@@ -11231,10 +11315,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>523</v>
+        <v>445</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11245,7 +11329,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>81</v>
@@ -11257,20 +11341,16 @@
         <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>438</v>
+        <v>104</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>524</v>
+        <v>105</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>81</v>
       </c>
@@ -11318,28 +11398,28 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>523</v>
+        <v>107</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>528</v>
+        <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>529</v>
+        <v>108</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -11350,10 +11430,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>530</v>
+        <v>446</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11361,7 +11441,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>80</v>
@@ -11376,20 +11456,16 @@
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>531</v>
+        <v>111</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>532</v>
+        <v>192</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>81</v>
       </c>
@@ -11425,19 +11501,19 @@
         <v>81</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>530</v>
+        <v>118</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11449,7 +11525,7 @@
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>81</v>
@@ -11458,29 +11534,31 @@
         <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>536</v>
+        <v>81</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>537</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>90</v>
@@ -11495,20 +11573,16 @@
         <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>81</v>
       </c>
@@ -11556,28 +11630,28 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>538</v>
+        <v>118</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>544</v>
+        <v>81</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>545</v>
+        <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>509</v>
+        <v>81</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
@@ -11588,10 +11662,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>546</v>
+        <v>486</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11614,18 +11688,16 @@
         <v>81</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>503</v>
+        <v>104</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>547</v>
+        <v>105</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>548</v>
+        <v>106</v>
       </c>
       <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>549</v>
-      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>81</v>
       </c>
@@ -11673,7 +11745,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>546</v>
+        <v>107</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11682,10 +11754,10 @@
         <v>90</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>544</v>
+        <v>81</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>81</v>
@@ -11694,7 +11766,7 @@
         <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>550</v>
+        <v>108</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
@@ -11705,10 +11777,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>551</v>
+        <v>488</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11719,7 +11791,7 @@
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>81</v>
@@ -11731,13 +11803,13 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11776,31 +11848,31 @@
         <v>81</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>81</v>
@@ -11809,7 +11881,7 @@
         <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
@@ -11820,21 +11892,21 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>552</v>
+        <v>490</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>81</v>
@@ -11846,16 +11918,16 @@
         <v>81</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>112</v>
+        <v>491</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>113</v>
+        <v>492</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>114</v>
+        <v>493</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11863,7 +11935,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>81</v>
+        <v>494</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>81</v>
@@ -11905,19 +11977,19 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>118</v>
+        <v>495</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>81</v>
@@ -11926,7 +11998,7 @@
         <v>81</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
@@ -11937,46 +12009,42 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>513</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>81</v>
       </c>
@@ -11985,7 +12053,7 @@
         <v>81</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>81</v>
@@ -12000,13 +12068,11 @@
         <v>81</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>81</v>
@@ -12024,19 +12090,19 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>81</v>
@@ -12056,10 +12122,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>554</v>
+        <v>453</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12079,21 +12145,21 @@
         <v>81</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>555</v>
+        <v>454</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>557</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>81</v>
       </c>
@@ -12117,13 +12183,13 @@
         <v>81</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>558</v>
+        <v>81</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>559</v>
+        <v>81</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>81</v>
@@ -12141,7 +12207,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>554</v>
+        <v>457</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12150,7 +12216,7 @@
         <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>102</v>
@@ -12162,7 +12228,7 @@
         <v>81</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>560</v>
+        <v>190</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>81</v>
@@ -12173,10 +12239,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>561</v>
+        <v>520</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>561</v>
+        <v>459</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12187,7 +12253,7 @@
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>81</v>
@@ -12196,21 +12262,21 @@
         <v>81</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>562</v>
+        <v>133</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>275</v>
+        <v>460</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>564</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>81</v>
       </c>
@@ -12234,13 +12300,13 @@
         <v>81</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>81</v>
+        <v>463</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>81</v>
@@ -12258,13 +12324,13 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>561</v>
+        <v>465</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>81</v>
@@ -12276,10 +12342,10 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>81</v>
@@ -12290,10 +12356,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>565</v>
+        <v>521</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>565</v>
+        <v>466</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12304,7 +12370,7 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>81</v>
@@ -12313,23 +12379,21 @@
         <v>81</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>280</v>
+        <v>467</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>566</v>
+        <v>468</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>564</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>81</v>
       </c>
@@ -12377,13 +12441,13 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>565</v>
+        <v>470</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>81</v>
@@ -12395,10 +12459,10 @@
         <v>81</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>278</v>
+        <v>471</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>81</v>
@@ -12409,10 +12473,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>567</v>
+        <v>522</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>567</v>
+        <v>472</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12432,23 +12496,21 @@
         <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>568</v>
+        <v>473</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>569</v>
+        <v>474</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>571</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>81</v>
       </c>
@@ -12472,13 +12534,13 @@
         <v>81</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>572</v>
+        <v>81</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>573</v>
+        <v>81</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>81</v>
@@ -12496,7 +12558,7 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>567</v>
+        <v>476</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12514,24 +12576,24 @@
         <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>574</v>
+        <v>81</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>575</v>
+        <v>190</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>576</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>577</v>
+        <v>523</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>577</v>
+        <v>523</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12554,18 +12616,20 @@
         <v>81</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>231</v>
+        <v>524</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>578</v>
+        <v>525</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>579</v>
+        <v>526</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>81</v>
       </c>
@@ -12589,13 +12653,13 @@
         <v>81</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>581</v>
+        <v>81</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>582</v>
+        <v>81</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>81</v>
@@ -12613,7 +12677,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>577</v>
+        <v>523</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12631,24 +12695,24 @@
         <v>81</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>583</v>
+        <v>81</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>81</v>
+        <v>529</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>81</v>
+        <v>530</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>584</v>
+        <v>531</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>584</v>
+        <v>531</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12671,18 +12735,18 @@
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>585</v>
+        <v>532</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>586</v>
+        <v>533</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>81</v>
       </c>
@@ -12730,7 +12794,7 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>584</v>
+        <v>531</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12742,16 +12806,16 @@
         <v>81</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>102</v>
+        <v>536</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>433</v>
+        <v>537</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>81</v>
+        <v>538</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>81</v>
@@ -12762,10 +12826,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>589</v>
+        <v>539</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>589</v>
+        <v>539</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12776,7 +12840,7 @@
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>81</v>
@@ -12788,18 +12852,16 @@
         <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>495</v>
+        <v>104</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>590</v>
+        <v>105</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>591</v>
+        <v>106</v>
       </c>
       <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>592</v>
-      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>81</v>
       </c>
@@ -12847,19 +12909,19 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>589</v>
+        <v>107</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>81</v>
@@ -12868,7 +12930,7 @@
         <v>81</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>500</v>
+        <v>108</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>81</v>
@@ -12879,46 +12941,44 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>593</v>
+        <v>540</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>593</v>
+        <v>540</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>594</v>
+        <v>112</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>595</v>
+        <v>113</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>597</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>81</v>
       </c>
@@ -12942,13 +13002,13 @@
         <v>81</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>598</v>
+        <v>81</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>599</v>
+        <v>81</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>81</v>
@@ -12966,76 +13026,78 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>593</v>
+        <v>118</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>600</v>
+        <v>81</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>601</v>
+        <v>108</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>602</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>603</v>
+        <v>541</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>603</v>
+        <v>541</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>81</v>
+        <v>542</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>604</v>
+        <v>543</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>605</v>
+        <v>544</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>81</v>
       </c>
@@ -13083,28 +13145,28 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>603</v>
+        <v>545</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>607</v>
+        <v>81</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
@@ -13115,10 +13177,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>608</v>
+        <v>546</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>608</v>
+        <v>546</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13129,38 +13191,34 @@
         <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>609</v>
+        <v>231</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>610</v>
+        <v>547</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>611</v>
+        <v>548</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>613</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q92" t="s" s="2">
-        <v>614</v>
-      </c>
+      <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
         <v>81</v>
       </c>
@@ -13180,13 +13238,13 @@
         <v>81</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>81</v>
+        <v>550</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>81</v>
+        <v>551</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>81</v>
@@ -13204,13 +13262,13 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>608</v>
+        <v>546</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>81</v>
@@ -13222,10 +13280,10 @@
         <v>81</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>615</v>
+        <v>81</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>616</v>
+        <v>81</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
@@ -13236,10 +13294,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>617</v>
+        <v>552</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>617</v>
+        <v>552</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13250,7 +13308,7 @@
         <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>81</v>
@@ -13262,17 +13320,19 @@
         <v>81</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>618</v>
+        <v>438</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>619</v>
+        <v>553</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>555</v>
+      </c>
       <c r="O93" t="s" s="2">
-        <v>621</v>
+        <v>556</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>81</v>
@@ -13321,13 +13381,13 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>617</v>
+        <v>552</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>81</v>
@@ -13339,24 +13399,24 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>377</v>
+        <v>557</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>378</v>
+        <v>558</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>622</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>623</v>
+        <v>559</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>623</v>
+        <v>559</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13367,7 +13427,7 @@
         <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>81</v>
@@ -13379,19 +13439,19 @@
         <v>81</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>624</v>
+        <v>560</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>625</v>
+        <v>561</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>626</v>
+        <v>562</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>627</v>
+        <v>563</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>628</v>
+        <v>564</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>81</v>
@@ -13440,13 +13500,13 @@
         <v>81</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>623</v>
+        <v>559</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>81</v>
@@ -13461,21 +13521,21 @@
         <v>81</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>629</v>
+        <v>565</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>630</v>
+        <v>566</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>631</v>
+        <v>567</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>631</v>
+        <v>567</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13486,7 +13546,7 @@
         <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>81</v>
@@ -13498,19 +13558,19 @@
         <v>81</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>632</v>
+        <v>568</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>633</v>
+        <v>569</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>634</v>
+        <v>570</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>635</v>
+        <v>571</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>628</v>
+        <v>572</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>81</v>
@@ -13559,16 +13619,16 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>631</v>
+        <v>567</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>81</v>
+        <v>573</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>102</v>
@@ -13577,24 +13637,24 @@
         <v>81</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>636</v>
+        <v>574</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>637</v>
+        <v>538</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>638</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13617,16 +13677,18 @@
         <v>81</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>640</v>
+        <v>532</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>641</v>
+        <v>576</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>642</v>
+        <v>577</v>
       </c>
       <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>81</v>
       </c>
@@ -13650,13 +13712,13 @@
         <v>81</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>643</v>
+        <v>81</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>644</v>
+        <v>81</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>81</v>
@@ -13674,7 +13736,7 @@
         <v>81</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13683,7 +13745,7 @@
         <v>90</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>81</v>
+        <v>573</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>102</v>
@@ -13695,25 +13757,25 @@
         <v>81</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>645</v>
+        <v>579</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>646</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>647</v>
+        <v>580</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>647</v>
+        <v>580</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>648</v>
+        <v>81</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13732,18 +13794,16 @@
         <v>81</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>649</v>
+        <v>104</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>650</v>
+        <v>105</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>651</v>
+        <v>106</v>
       </c>
       <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>652</v>
-      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>81</v>
       </c>
@@ -13791,7 +13851,7 @@
         <v>81</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>647</v>
+        <v>107</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13803,7 +13863,7 @@
         <v>81</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>81</v>
@@ -13812,32 +13872,32 @@
         <v>81</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>653</v>
+        <v>108</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>654</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>655</v>
+        <v>581</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>655</v>
+        <v>581</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>81</v>
@@ -13849,15 +13909,17 @@
         <v>81</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>649</v>
+        <v>111</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>656</v>
+        <v>112</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>81</v>
@@ -13906,19 +13968,19 @@
         <v>81</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>655</v>
+        <v>118</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>81</v>
@@ -13927,53 +13989,57 @@
         <v>81</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>658</v>
+        <v>108</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>659</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>660</v>
+        <v>582</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>660</v>
+        <v>582</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>81</v>
+        <v>542</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>661</v>
+        <v>543</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>81</v>
       </c>
@@ -14021,19 +14087,19 @@
         <v>81</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>660</v>
+        <v>545</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>81</v>
@@ -14042,21 +14108,21 @@
         <v>81</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>663</v>
+        <v>190</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>537</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>664</v>
+        <v>583</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>664</v>
+        <v>583</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14079,17 +14145,17 @@
         <v>81</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>531</v>
+        <v>167</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>665</v>
+        <v>584</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>666</v>
+        <v>585</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>667</v>
+        <v>586</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>81</v>
@@ -14114,13 +14180,13 @@
         <v>81</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>81</v>
+        <v>587</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>81</v>
+        <v>588</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>81</v>
@@ -14138,13 +14204,13 @@
         <v>81</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>664</v>
+        <v>583</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>81</v>
@@ -14153,19 +14219,2016 @@
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="P102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q109" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="P112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="AL100" t="s" s="2">
+      <c r="B113" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K113" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="AM100" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>537</v>
+      <c r="L113" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="P114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="P117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T10:50:40+00:00</t>
+    <t>2025-12-10T17:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T17:05:10+00:00</t>
+    <t>2025-12-11T09:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:07:04+00:00</t>
+    <t>2025-12-11T13:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -634,7 +634,7 @@
     <t>Pièce jointe</t>
   </si>
   <si>
-    <t>Ce profil permet de véhiculer des pièces jointes que ce soit pour l'évaluation, l'évènement ou le projet personnalisé. L'extension référence le profil PDSm_SimplifiedPublish.</t>
+    <t>Extension permettant de véhiculer des pièces jointes que ce soit pour l'évaluation, l'évènement ou le projet personnalisé. L'extension référence le profil PDSm_SimplifiedPublish.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T13:02:12+00:00</t>
+    <t>2025-12-12T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T08:56:07+00:00</t>
+    <t>2025-12-12T09:34:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T09:34:59+00:00</t>
+    <t>2025-12-12T10:25:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T10:25:32+00:00</t>
+    <t>2025-12-12T10:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
